--- a/running_times.xlsx
+++ b/running_times.xlsx
@@ -8,15 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Uni\Term 6\Data Structure II\Data-Structure-2-Assignment-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C5FD0B-CD85-428F-A714-74CB954AD9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1B85A-994F-4685-966A-40F3BFF45F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(Sheet1!$B$2,Sheet1!$B$11,Sheet1!$B$26,Sheet1!$B$51,Sheet1!$B$101)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$26,Sheet1!$C$51,Sheet1!$C$101)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(Sheet1!$D$2,Sheet1!$D$11,Sheet1!$D$26,Sheet1!$D$51,Sheet1!$D$101)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(Sheet1!$E$2,Sheet1!$E$11,Sheet1!$E$26,Sheet1!$E$51,Sheet1!$E$101)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">(Sheet1!$F$2,Sheet1!$F$11,Sheet1!$F$26,Sheet1!$F$51,Sheet1!$F$101)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">(Sheet1!$G$2,Sheet1!$G$11,Sheet1!$G$26,Sheet1!$G$51,Sheet1!$G$101)</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,6 +124,5433 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> For All Points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.642776489258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>995.87440490722656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995.87440490722656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>984.90715026855469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1991.033554077148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>986.0992431640625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1027.345657348633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>998.02017211914063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>997.78175354003906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>998.73542785644531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>966.07208251953125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1995.325088500977</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>996.35124206542969</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>999.45068359375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1003.265380859375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1006.126403808594</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>994.68231201171875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>966.54891967773438</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>989.9139404296875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>997.78175354003906</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>965.118408203125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>993.96705627441406</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>998.02017211914063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1000.881195068359</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>967.26417541503906</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>967.26417541503906</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>993.49021911621094</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>999.45068359375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1003.265380859375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1987.457275390625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>976.08566284179688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>994.92073059082031</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>966.54891967773438</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>987.29133605957031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1000.404357910156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1000.404357910156</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1003.503799438477</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>992.77496337890625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>998.02017211914063</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1967.191696166992</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1027.8224945068359</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1037.59765625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>968.45626831054688</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>999.21226501464844</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>960.58845520019531</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>985.14556884765625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1000.881195068359</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1994.132995605469</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1028.060913085938</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>965.59524536132813</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>986.81449890136719</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1003.503799438477</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>962.73422241210938</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>999.21226501464844</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>964.87998962402344</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>999.68910217285156</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1011.133193969727</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>989.67552185058594</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1025.6767272949221</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1093.626022338867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>993.96705627441406</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1001.1196136474611</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1037.59765625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>991.34445190429688</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>961.06529235839844</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>960.82687377929688</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>998.97384643554688</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>989.67552185058594</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1028.5377502441411</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>998.02017211914063</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>966.54891967773438</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>990.86761474609375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B08-4213-A39D-BB27D2D821D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997.4708557128911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1008.510589599609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1994.6098327636721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1002.788543701172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>999.45068359375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1964.807510375977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1994.132995605469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1003.503799438477</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1035.4518890380859</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>994.92073059082031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>996.35124206542969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1994.6098327636721</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1021.623611450195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>998.97384643554688</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>967.74101257324219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002.477645874023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>990.39077758789063</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>960.82687377929688</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>965.59524536132813</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1026.153564453125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>968.21784973144531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1029.4914245605471</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1030.6835174560549</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>961.78054809570313</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1033.544540405273</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1028.776168823242</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1993.6561584472661</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>969.40994262695313</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>995.635986328125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>998.02017211914063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1004.457473754883</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>995.635986328125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>988.96026611328125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>999.45068359375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1000.881195068359</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>999.21226501464844</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>967.26417541503906</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1019.23942565918</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>967.0257568359375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>968.93310546875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>995.87440490722656</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1033.544540405273</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1002.311706542969</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>994.68231201171875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1993.894577026367</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1995.8019256591799</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>995.87440490722656</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1994.848251342773</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>982.2845458984375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>994.68231201171875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>996.35124206542969</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1029.4914245605471</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1912.5938415527339</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>998.02017211914063</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>999.45068359375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>959.3963623046875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2009.153366088867</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1031.160354614258</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1027.345657348633</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>988.72184753417969</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>994.92073059082031</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1029.4914245605471</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1029.2530059814451</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>998.97384643554688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B08-4213-A39D-BB27D2D821D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4986.0477447509766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4986.7630004882813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3990.411758422852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3986.358642578125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5013.2274627685547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3979.6829223632808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3954.8873901367192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3983.0207824707031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3985.4049682617192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3988.9812469482422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4986.2861633300781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3989.2196655273442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4987.0014190673828</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4982.7098846435547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3979.9213409423828</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3982.782363891602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4986.7630004882813</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4018.3067321777339</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4960.7753753662109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3988.7428283691411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5021.8105316162109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3989.2196655273442</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5016.8037414550781</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3951.0726928710942</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4956.0070037841797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3989.6965026855469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5025.6252288818359</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4023.5519409179692</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4957.4375152587891</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3989.2196655273442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3991.3654327392578</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3960.8478546142578</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3988.9812469482422</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3988.7428283691411</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4014.0151977539058</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3992.7959442138672</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3988.9812469482422</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4977.9415130615234</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4987.7166748046884</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3994.4648742675781</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3995.895385742188</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5018.7110900878906</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3986.120223999023</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4018.3067321777339</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5989.3131256103516</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3989.934921264648</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5017.7574157714844</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3953.933715820312</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5014.4195556640616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3996.1338043212891</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3989.6965026855469</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3957.5099945068359</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4986.2861633300781</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3604.4120788574219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5017.5189971923828</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4946.4702606201172</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3993.5111999511719</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3966.3314819335942</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4019.0219879150391</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4986.7630004882813</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4986.2861633300781</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3989.4580841064449</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5027.0557403564453</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4029.2739868164058</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3989.2196655273442</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4987.2398376464844</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3988.9812469482422</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3998.9948272705078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4953.1459808349609</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3990.6501770019531</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4984.6172332763672</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3993.749618530273</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3953.933715820312</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3990.8885955810551</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4063.3678436279301</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3989.4580841064449</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3989.4580841064449</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3990.411758422852</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4025.9361267089839</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5013.9427185058594</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3990.411758422852</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4004.2400360107422</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4957.9143524169922</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4017.3530578613281</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4986.5245819091797</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4023.7903594970699</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3992.7959442138672</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4949.0928649902344</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4986.5245819091797</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4982.2330474853516</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3992.5575256347661</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3982.5439453125</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3990.411758422852</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4987.0014190673828</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3992.5575256347661</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4723.0720520019531</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3993.2727813720699</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4983.6635589599609</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3992.5575256347661</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3987.3123168945308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B08-4213-A39D-BB27D2D821D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>997.78175354003906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994.3714141845701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997.2324371337891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>970.60203552246094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1999.139785766602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2032.5183868408201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2006.53076171875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001.2855529785161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994.3714141845701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3021.7170715332031</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>999.21226501464844</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>995.87440490722656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>997.78175354003906</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1967.191696166992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>999.45068359375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003.4313201904299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>998.97384643554688</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>994.68231201171875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1995.5635070800779</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>982.99980163574219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1994.6098327636721</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1033.3061218261721</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2030.372619628906</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>962.73422241210938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1960.515975952148</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>999.21226501464844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2014.8754119873049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>994.44389343261719</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1995.086669921875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1997.2324371337891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1956.2244415283201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031.0878753662109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1001.834869384766</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1028.2993316650391</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1996.5171813964839</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1986.9804382324221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1996.7555999755859</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2002.2392272949221</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>968.21784973144531</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1990.318298339844</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2024.1737365722661</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1996.040344238281</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>973.22463989257813</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>988.96026611328125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1997.709274291992</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2035.856246948242</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2996.2062835693359</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1986.265182495117</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1002.073287963867</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>996.35124206542969</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1024.961471557617</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1996.278762817383</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1000.642776489258</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>997.06649780273438</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1995.325088500977</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1992.225646972656</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1987.9341125488279</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1995.8019256591799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>998.02017211914063</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1982.688903808594</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1992.7024841308589</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>993.25180053710938</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1995.086669921875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>968.21784973144531</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1996.7555999755859</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2025.842666625977</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1993.894577026367</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1957.4165344238279</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>970.60203552246094</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1998.662948608398</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1987.218856811523</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1995.325088500977</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1003.742218017578</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>992.29812622070313</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1997.709274291992</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1994.6098327636721</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>971.07887268066406</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1003.98063659668</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1998.9013671875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>967.50259399414063</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1963.376998901367</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1000.642776489258</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1997.4708557128911</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1001.1196136474611</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>961.78054809570313</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1961.708068847656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2B08-4213-A39D-BB27D2D821D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1504.6596527099609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995.8019256591799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995.15914916992188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035.856246948242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>995.87440490722656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>993.01338195800781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000.165939331055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960.35003662109375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1965.9996032714839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>995.635986328125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995.086669921875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1995.086669921875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000.3318786621089</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1993.894577026367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>990.62919616699219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>996.82807922363281</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1995.325088500977</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1961.4696502685549</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1027.345657348633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1010.656356811523</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1029.014587402344</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1986.265182495117</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>995.635986328125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020.1206207275391</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1034.4982147216799</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1992.9409027099609</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1993.894577026367</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1008.510589599609</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1996.994018554688</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1026.8688201904299</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>994.68231201171875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1964.807510375977</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1030.921936035156</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>990.86761474609375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1962.9001617431641</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1993.6561584472661</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>993.7286376953125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>989.67552185058594</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>966.54891967773438</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2015.8290863037109</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1999.139785766602</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1026.8688201904299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1993.894577026367</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>994.44389343261719</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>986.81449890136719</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1983.404159545898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>967.74101257324219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1957.893371582031</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1994.6098327636721</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1992.9409027099609</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1024.246215820312</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1998.9013671875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1000.165939331055</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1401.901245117188</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>997.78175354003906</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1993.894577026367</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>999.92752075195313</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1994.6098327636721</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2033.7104797363279</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1991.9872283935549</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3025.293350219727</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1995.325088500977</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>994.92073059082031</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>997.5433349609375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1028.060913085938</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>998.73542785644531</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>961.78054809570313</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>999.21226501464844</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>967.50259399414063</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>987.05291748046875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1996.5171813964839</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>996.58966064453125</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3020.5249786376949</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1997.4708557128911</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1026.153564453125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1990.7951354980471</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2028.9421081542971</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1034.736633300781</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1955.986022949219</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>960.11161804199219</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1992.225646972656</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2033.233642578125</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2B08-4213-A39D-BB27D2D821D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448496352"/>
+        <c:axId val="643793392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448496352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643793392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="643793392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448496352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quick</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$11,Sheet1!$B$26,Sheet1!$B$51,Sheet1!$B$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$C$11,Sheet1!$C$26,Sheet1!$C$51,Sheet1!$C$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>996.11282348632813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1027.345657348633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1003.265380859375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.404357910156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>990.86761474609375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CD2-4C58-B74A-78B0A01832F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$11,Sheet1!$B$26,Sheet1!$B$51,Sheet1!$B$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$2,Sheet1!$D$11,Sheet1!$D$26,Sheet1!$D$51,Sheet1!$D$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>997.30491638183594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1964.807510375977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>990.39077758789063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>988.96026611328125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>998.97384643554688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CD2-4C58-B74A-78B0A01832F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$11,Sheet1!$B$26,Sheet1!$B$51,Sheet1!$B$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$2,Sheet1!$E$11,Sheet1!$E$26,Sheet1!$E$51,Sheet1!$E$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4986.0477447509766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3988.9812469482422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4956.0070037841797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3996.1338043212891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3987.3123168945308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7CD2-4C58-B74A-78B0A01832F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$11,Sheet1!$B$26,Sheet1!$B$51,Sheet1!$B$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$2,Sheet1!$F$11,Sheet1!$F$26,Sheet1!$F$51,Sheet1!$F$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>997.78175354003906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994.3714141845701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1033.3061218261721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>988.96026611328125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1961.708068847656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7CD2-4C58-B74A-78B0A01832F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Sheet1!$B$2,Sheet1!$B$11,Sheet1!$B$26,Sheet1!$B$51,Sheet1!$B$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$2,Sheet1!$G$11,Sheet1!$G$26,Sheet1!$G$51,Sheet1!$G$101)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1504.6596527099609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998.25859069824219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1986.265182495117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993.894577026367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>998.49700927734375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7CD2-4C58-B74A-78B0A01832F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="482085296"/>
+        <c:axId val="275018336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="482085296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275018336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275018336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482085296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639BB4BD-3D3A-317B-FF9C-3BB417E84E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12A3384-D438-63C1-E8EE-993F4A1346D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,29 +5876,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -452,19 +5910,19 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>0.99420547485351563</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="D2">
-        <v>1.9967555999755859</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E2">
-        <v>3.9839744567871089</v>
+        <v>4986.0477447509766</v>
       </c>
       <c r="F2">
-        <v>0.96678733825683594</v>
+        <v>997.78175354003906</v>
       </c>
       <c r="G2">
-        <v>1.9936561584472661</v>
+        <v>1504.6596527099609</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -475,19 +5933,19 @@
         <v>2000</v>
       </c>
       <c r="C3">
-        <v>0.99778175354003906</v>
+        <v>1000.642776489258</v>
       </c>
       <c r="D3">
-        <v>0.99730491638183594</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="E3">
-        <v>3.9889812469482422</v>
+        <v>4986.7630004882813</v>
       </c>
       <c r="F3">
-        <v>1.994848251342773</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="G3">
-        <v>0.99730491638183594</v>
+        <v>1995.8019256591799</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -498,19 +5956,19 @@
         <v>3000</v>
       </c>
       <c r="C4">
-        <v>0.99730491638183594</v>
+        <v>995.87440490722656</v>
       </c>
       <c r="D4">
-        <v>0.9975433349609375</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E4">
-        <v>3.9892196655273442</v>
+        <v>3990.411758422852</v>
       </c>
       <c r="F4">
-        <v>1.9943714141845701</v>
+        <v>1994.3714141845701</v>
       </c>
       <c r="G4">
-        <v>0.99778175354003906</v>
+        <v>997.5433349609375</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -521,19 +5979,19 @@
         <v>4000</v>
       </c>
       <c r="C5">
-        <v>0.99706649780273438</v>
+        <v>995.87440490722656</v>
       </c>
       <c r="D5">
-        <v>1.9946098327636721</v>
+        <v>1997.4708557128911</v>
       </c>
       <c r="E5">
-        <v>3.9894580841064449</v>
+        <v>3986.358642578125</v>
       </c>
       <c r="F5">
-        <v>0.99730491638183594</v>
+        <v>1997.2324371337891</v>
       </c>
       <c r="G5">
-        <v>1.9943714141845701</v>
+        <v>995.15914916992188</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -544,19 +6002,19 @@
         <v>5000</v>
       </c>
       <c r="C6">
-        <v>1.029014587402344</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="D6">
-        <v>1.0066032409667971</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E6">
-        <v>3.986120223999023</v>
+        <v>5013.2274627685547</v>
       </c>
       <c r="F6">
-        <v>1.993894577026367</v>
+        <v>970.60203552246094</v>
       </c>
       <c r="G6">
-        <v>0.9613037109375</v>
+        <v>2035.856246948242</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -567,19 +6025,19 @@
         <v>6000</v>
       </c>
       <c r="C7">
-        <v>1.030921936035156</v>
+        <v>984.90715026855469</v>
       </c>
       <c r="D7">
-        <v>0.99658966064453125</v>
+        <v>1008.510589599609</v>
       </c>
       <c r="E7">
-        <v>3.994226455688477</v>
+        <v>3979.6829223632808</v>
       </c>
       <c r="F7">
-        <v>1.991033554077148</v>
+        <v>1999.139785766602</v>
       </c>
       <c r="G7">
-        <v>0.96368789672851563</v>
+        <v>995.87440490722656</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -590,19 +6048,19 @@
         <v>7000</v>
       </c>
       <c r="C8">
-        <v>1.019477844238281</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="D8">
-        <v>0.99706649780273438</v>
+        <v>1994.6098327636721</v>
       </c>
       <c r="E8">
-        <v>4.9974918365478516</v>
+        <v>3954.8873901367192</v>
       </c>
       <c r="F8">
-        <v>0.99921226501464844</v>
+        <v>2032.5183868408201</v>
       </c>
       <c r="G8">
-        <v>1.995325088500977</v>
+        <v>993.01338195800781</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -613,19 +6071,19 @@
         <v>8000</v>
       </c>
       <c r="C9">
-        <v>0.99635124206542969</v>
+        <v>1991.033554077148</v>
       </c>
       <c r="D9">
-        <v>0.96416473388671875</v>
+        <v>1002.788543701172</v>
       </c>
       <c r="E9">
-        <v>3.9870738983154301</v>
+        <v>3983.0207824707031</v>
       </c>
       <c r="F9">
-        <v>0.99778175354003906</v>
+        <v>2006.53076171875</v>
       </c>
       <c r="G9">
-        <v>1.994132995605469</v>
+        <v>1000.165939331055</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -636,19 +6094,19 @@
         <v>9000</v>
       </c>
       <c r="C10">
-        <v>0.9975433349609375</v>
+        <v>986.0992431640625</v>
       </c>
       <c r="D10">
-        <v>0.9975433349609375</v>
+        <v>999.45068359375</v>
       </c>
       <c r="E10">
-        <v>3.9889812469482422</v>
+        <v>3985.4049682617192</v>
       </c>
       <c r="F10">
-        <v>1.9943714141845701</v>
+        <v>2001.2855529785161</v>
       </c>
       <c r="G10">
-        <v>0.99778175354003906</v>
+        <v>960.35003662109375</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -659,19 +6117,19 @@
         <v>10000</v>
       </c>
       <c r="C11">
-        <v>0.9975433349609375</v>
+        <v>1027.345657348633</v>
       </c>
       <c r="D11">
-        <v>0.99992752075195313</v>
+        <v>1964.807510375977</v>
       </c>
       <c r="E11">
-        <v>4.9860477447509766</v>
+        <v>3988.9812469482422</v>
       </c>
       <c r="F11">
-        <v>0.99706649780273438</v>
+        <v>1994.3714141845701</v>
       </c>
       <c r="G11">
-        <v>1.9943714141845701</v>
+        <v>998.25859069824219</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -682,19 +6140,19 @@
         <v>11000</v>
       </c>
       <c r="C12">
-        <v>0.99778175354003906</v>
+        <v>996.82807922363281</v>
       </c>
       <c r="D12">
-        <v>0.9975433349609375</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E12">
-        <v>3.9889812469482422</v>
+        <v>4986.2861633300781</v>
       </c>
       <c r="F12">
-        <v>0.9975433349609375</v>
+        <v>3021.7170715332031</v>
       </c>
       <c r="G12">
-        <v>1.9943714141845701</v>
+        <v>1965.9996032714839</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -705,19 +6163,19 @@
         <v>12000</v>
       </c>
       <c r="C13">
-        <v>0.9975433349609375</v>
+        <v>998.02017211914063</v>
       </c>
       <c r="D13">
-        <v>0.99730491638183594</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E13">
-        <v>3.9889812469482422</v>
+        <v>3989.2196655273442</v>
       </c>
       <c r="F13">
-        <v>1.9946098327636721</v>
+        <v>999.21226501464844</v>
       </c>
       <c r="G13">
-        <v>0.9975433349609375</v>
+        <v>995.635986328125</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -728,19 +6186,19 @@
         <v>13000</v>
       </c>
       <c r="C14">
-        <v>0.99778175354003906</v>
+        <v>997.78175354003906</v>
       </c>
       <c r="D14">
-        <v>0.99730491638183594</v>
+        <v>1994.132995605469</v>
       </c>
       <c r="E14">
-        <v>3.9889812469482422</v>
+        <v>4987.0014190673828</v>
       </c>
       <c r="F14">
-        <v>1.994132995605469</v>
+        <v>996.82807922363281</v>
       </c>
       <c r="G14">
-        <v>0.99802017211914063</v>
+        <v>1995.086669921875</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -751,19 +6209,19 @@
         <v>14000</v>
       </c>
       <c r="C15">
-        <v>0.99730491638183594</v>
+        <v>996.82807922363281</v>
       </c>
       <c r="D15">
-        <v>0.9975433349609375</v>
+        <v>1003.503799438477</v>
       </c>
       <c r="E15">
-        <v>3.9892196655273442</v>
+        <v>4982.7098846435547</v>
       </c>
       <c r="F15">
-        <v>0.99730491638183594</v>
+        <v>995.87440490722656</v>
       </c>
       <c r="G15">
-        <v>1.9943714141845701</v>
+        <v>1995.086669921875</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -774,19 +6232,19 @@
         <v>15000</v>
       </c>
       <c r="C16">
-        <v>0.99778175354003906</v>
+        <v>998.73542785644531</v>
       </c>
       <c r="D16">
-        <v>1.0292530059814451</v>
+        <v>1035.4518890380859</v>
       </c>
       <c r="E16">
-        <v>4.0094852447509766</v>
+        <v>3979.9213409423828</v>
       </c>
       <c r="F16">
-        <v>1.9752979278564451</v>
+        <v>997.78175354003906</v>
       </c>
       <c r="G16">
-        <v>0.99635124206542969</v>
+        <v>2000.3318786621089</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -797,19 +6255,19 @@
         <v>16000</v>
       </c>
       <c r="C17">
-        <v>0.99706649780273438</v>
+        <v>996.82807922363281</v>
       </c>
       <c r="D17">
-        <v>0.9975433349609375</v>
+        <v>994.92073059082031</v>
       </c>
       <c r="E17">
-        <v>3.9925575256347661</v>
+        <v>3982.782363891602</v>
       </c>
       <c r="F17">
-        <v>1.993894577026367</v>
+        <v>1967.191696166992</v>
       </c>
       <c r="G17">
-        <v>1.9600391387939451</v>
+        <v>996.82807922363281</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -820,19 +6278,19 @@
         <v>17000</v>
       </c>
       <c r="C18">
-        <v>1.0313987731933589</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="D18">
-        <v>0.99849700927734375</v>
+        <v>996.35124206542969</v>
       </c>
       <c r="E18">
-        <v>3.9892196655273442</v>
+        <v>4986.7630004882813</v>
       </c>
       <c r="F18">
-        <v>0.99825859069824219</v>
+        <v>999.45068359375</v>
       </c>
       <c r="G18">
-        <v>1.993894577026367</v>
+        <v>1993.894577026367</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -843,19 +6301,19 @@
         <v>18000</v>
       </c>
       <c r="C19">
-        <v>1.0001659393310549</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="D19">
-        <v>0.9975433349609375</v>
+        <v>1994.6098327636721</v>
       </c>
       <c r="E19">
-        <v>4.9805641174316406</v>
+        <v>4018.3067321777339</v>
       </c>
       <c r="F19">
-        <v>2.9978752136230469</v>
+        <v>2003.4313201904299</v>
       </c>
       <c r="G19">
-        <v>2.9890537261962891</v>
+        <v>990.62919616699219</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -866,19 +6324,19 @@
         <v>19000</v>
       </c>
       <c r="C20">
-        <v>0.99706649780273438</v>
+        <v>966.07208251953125</v>
       </c>
       <c r="D20">
-        <v>1.996040344238281</v>
+        <v>1021.623611450195</v>
       </c>
       <c r="E20">
-        <v>6.9768428802490234</v>
+        <v>4960.7753753662109</v>
       </c>
       <c r="F20">
-        <v>1.960992813110352</v>
+        <v>998.97384643554688</v>
       </c>
       <c r="G20">
-        <v>0.99730491638183594</v>
+        <v>996.82807922363281</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -889,19 +6347,19 @@
         <v>20000</v>
       </c>
       <c r="C21">
-        <v>0.9975433349609375</v>
+        <v>1995.325088500977</v>
       </c>
       <c r="D21">
-        <v>0.99730491638183594</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E21">
-        <v>3.9889812469482422</v>
+        <v>3988.7428283691411</v>
       </c>
       <c r="F21">
-        <v>1.994848251342773</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="G21">
-        <v>0.99730491638183594</v>
+        <v>1995.325088500977</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -912,19 +6370,19 @@
         <v>21000</v>
       </c>
       <c r="C22">
-        <v>0.9975433349609375</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="D22">
-        <v>0.9975433349609375</v>
+        <v>998.97384643554688</v>
       </c>
       <c r="E22">
-        <v>3.9892196655273442</v>
+        <v>5021.8105316162109</v>
       </c>
       <c r="F22">
-        <v>0.99730491638183594</v>
+        <v>994.68231201171875</v>
       </c>
       <c r="G22">
-        <v>1.9946098327636721</v>
+        <v>1961.4696502685549</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -935,19 +6393,19 @@
         <v>22000</v>
       </c>
       <c r="C23">
-        <v>0.99730491638183594</v>
+        <v>996.58966064453125</v>
       </c>
       <c r="D23">
-        <v>0.99825859069824219</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E23">
-        <v>3.9885044097900391</v>
+        <v>3989.2196655273442</v>
       </c>
       <c r="F23">
-        <v>0.99730491638183594</v>
+        <v>1995.5635070800779</v>
       </c>
       <c r="G23">
-        <v>1.9958019256591799</v>
+        <v>1027.345657348633</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -958,19 +6416,19 @@
         <v>23000</v>
       </c>
       <c r="C24">
-        <v>0.99802017211914063</v>
+        <v>996.35124206542969</v>
       </c>
       <c r="D24">
-        <v>0.99611282348632813</v>
+        <v>967.74101257324219</v>
       </c>
       <c r="E24">
-        <v>3.9885044097900391</v>
+        <v>5016.8037414550781</v>
       </c>
       <c r="F24">
-        <v>1.994848251342773</v>
+        <v>982.99980163574219</v>
       </c>
       <c r="G24">
-        <v>0.99730491638183594</v>
+        <v>1010.656356811523</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -981,19 +6439,19 @@
         <v>24000</v>
       </c>
       <c r="C25">
-        <v>0.9975433349609375</v>
+        <v>999.45068359375</v>
       </c>
       <c r="D25">
-        <v>0.99730491638183594</v>
+        <v>2002.477645874023</v>
       </c>
       <c r="E25">
-        <v>4.9903392791748047</v>
+        <v>3951.0726928710942</v>
       </c>
       <c r="F25">
-        <v>1.0280609130859379</v>
+        <v>1994.6098327636721</v>
       </c>
       <c r="G25">
-        <v>1.9972324371337891</v>
+        <v>1029.014587402344</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,19 +6462,19 @@
         <v>25000</v>
       </c>
       <c r="C26">
-        <v>0.99992752075195313</v>
+        <v>1003.265380859375</v>
       </c>
       <c r="D26">
-        <v>0.99468231201171875</v>
+        <v>990.39077758789063</v>
       </c>
       <c r="E26">
-        <v>3.9887428283691411</v>
+        <v>4956.0070037841797</v>
       </c>
       <c r="F26">
-        <v>0.99229812622070313</v>
+        <v>1033.3061218261721</v>
       </c>
       <c r="G26">
-        <v>2.0005702972412109</v>
+        <v>1986.265182495117</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1027,19 +6485,19 @@
         <v>26000</v>
       </c>
       <c r="C27">
-        <v>0.96154212951660156</v>
+        <v>1006.126403808594</v>
       </c>
       <c r="D27">
-        <v>1.02996826171875</v>
+        <v>960.82687377929688</v>
       </c>
       <c r="E27">
-        <v>4.9540996551513672</v>
+        <v>3989.6965026855469</v>
       </c>
       <c r="F27">
-        <v>0.9975433349609375</v>
+        <v>2030.372619628906</v>
       </c>
       <c r="G27">
-        <v>1.9943714141845701</v>
+        <v>995.635986328125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1050,19 +6508,19 @@
         <v>27000</v>
       </c>
       <c r="C28">
-        <v>0.9975433349609375</v>
+        <v>994.68231201171875</v>
       </c>
       <c r="D28">
-        <v>0.99682807922363281</v>
+        <v>965.59524536132813</v>
       </c>
       <c r="E28">
-        <v>3.9889812469482422</v>
+        <v>5025.6252288818359</v>
       </c>
       <c r="F28">
-        <v>0.9975433349609375</v>
+        <v>962.73422241210938</v>
       </c>
       <c r="G28">
-        <v>1.9946098327636721</v>
+        <v>2020.1206207275391</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,19 +6531,19 @@
         <v>28000</v>
       </c>
       <c r="C29">
-        <v>0.99849700927734375</v>
+        <v>966.54891967773438</v>
       </c>
       <c r="D29">
-        <v>0.99635124206542969</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="E29">
-        <v>3.9892196655273442</v>
+        <v>4023.5519409179692</v>
       </c>
       <c r="F29">
-        <v>1.9943714141845701</v>
+        <v>1960.515975952148</v>
       </c>
       <c r="G29">
-        <v>0.9975433349609375</v>
+        <v>1034.4982147216799</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1096,19 +6554,19 @@
         <v>29000</v>
       </c>
       <c r="C30">
-        <v>0.9975433349609375</v>
+        <v>989.9139404296875</v>
       </c>
       <c r="D30">
-        <v>1.995086669921875</v>
+        <v>996.58966064453125</v>
       </c>
       <c r="E30">
-        <v>3.9885044097900391</v>
+        <v>4957.4375152587891</v>
       </c>
       <c r="F30">
-        <v>0.99825859069824219</v>
+        <v>999.21226501464844</v>
       </c>
       <c r="G30">
-        <v>2.0298957824707031</v>
+        <v>1992.9409027099609</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1119,19 +6577,19 @@
         <v>30000</v>
       </c>
       <c r="C31">
-        <v>1.002073287963867</v>
+        <v>996.82807922363281</v>
       </c>
       <c r="D31">
-        <v>0.98967552185058594</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E31">
-        <v>3.9923191070556641</v>
+        <v>3989.2196655273442</v>
       </c>
       <c r="F31">
-        <v>0.99420547485351563</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="G31">
-        <v>2.0003318786621089</v>
+        <v>1993.894577026367</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1142,19 +6600,19 @@
         <v>31000</v>
       </c>
       <c r="C32">
-        <v>0.99778175354003906</v>
+        <v>997.78175354003906</v>
       </c>
       <c r="D32">
-        <v>0.99444389343261719</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E32">
-        <v>4.9500465393066406</v>
+        <v>3991.3654327392578</v>
       </c>
       <c r="F32">
-        <v>2.0308494567871089</v>
+        <v>2014.8754119873049</v>
       </c>
       <c r="G32">
-        <v>1.0008811950683589</v>
+        <v>1008.510589599609</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,19 +6623,19 @@
         <v>32000</v>
       </c>
       <c r="C33">
-        <v>0.99158287048339844</v>
+        <v>965.118408203125</v>
       </c>
       <c r="D33">
-        <v>0.99658966064453125</v>
+        <v>1026.153564453125</v>
       </c>
       <c r="E33">
-        <v>4.9922466278076172</v>
+        <v>3960.8478546142578</v>
       </c>
       <c r="F33">
-        <v>0.99468231201171875</v>
+        <v>994.44389343261719</v>
       </c>
       <c r="G33">
-        <v>1.9586086273193359</v>
+        <v>1996.994018554688</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1188,19 +6646,19 @@
         <v>33000</v>
       </c>
       <c r="C34">
-        <v>0.99706649780273438</v>
+        <v>993.96705627441406</v>
       </c>
       <c r="D34">
-        <v>1.0323524475097661</v>
+        <v>998.25859069824219</v>
       </c>
       <c r="E34">
-        <v>3.9932727813720699</v>
+        <v>3988.9812469482422</v>
       </c>
       <c r="F34">
-        <v>0.99205970764160156</v>
+        <v>1995.086669921875</v>
       </c>
       <c r="G34">
-        <v>1.9974708557128911</v>
+        <v>1026.8688201904299</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,19 +6669,19 @@
         <v>34000</v>
       </c>
       <c r="C35">
-        <v>0.99420547485351563</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="D35">
-        <v>0.99825859069824219</v>
+        <v>968.21784973144531</v>
       </c>
       <c r="E35">
-        <v>3.9920806884765621</v>
+        <v>3988.7428283691411</v>
       </c>
       <c r="F35">
-        <v>1.994132995605469</v>
+        <v>1997.2324371337891</v>
       </c>
       <c r="G35">
-        <v>0.99706649780273438</v>
+        <v>994.68231201171875</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1234,19 +6692,19 @@
         <v>35000</v>
       </c>
       <c r="C36">
-        <v>0.99229812622070313</v>
+        <v>998.02017211914063</v>
       </c>
       <c r="D36">
-        <v>0.99968910217285156</v>
+        <v>1029.4914245605471</v>
       </c>
       <c r="E36">
-        <v>4.9884319305419922</v>
+        <v>4014.0151977539058</v>
       </c>
       <c r="F36">
-        <v>1.002311706542969</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="G36">
-        <v>1.9907951354980471</v>
+        <v>1964.807510375977</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1257,19 +6715,19 @@
         <v>36000</v>
       </c>
       <c r="C37">
-        <v>1.0025501251220701</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="D37">
-        <v>0.99253654479980469</v>
+        <v>1030.6835174560549</v>
       </c>
       <c r="E37">
-        <v>3.9539337158203121</v>
+        <v>3992.7959442138672</v>
       </c>
       <c r="F37">
-        <v>0.99778175354003906</v>
+        <v>1956.2244415283201</v>
       </c>
       <c r="G37">
-        <v>1.994132995605469</v>
+        <v>1030.921936035156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1280,19 +6738,19 @@
         <v>37000</v>
       </c>
       <c r="C38">
-        <v>0.99802017211914063</v>
+        <v>1000.881195068359</v>
       </c>
       <c r="D38">
-        <v>0.99682807922363281</v>
+        <v>961.78054809570313</v>
       </c>
       <c r="E38">
-        <v>3.9889812469482422</v>
+        <v>3988.9812469482422</v>
       </c>
       <c r="F38">
-        <v>1.994848251342773</v>
+        <v>2031.0878753662109</v>
       </c>
       <c r="G38">
-        <v>0.99778175354003906</v>
+        <v>990.86761474609375</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1303,19 +6761,19 @@
         <v>38000</v>
       </c>
       <c r="C39">
-        <v>0.99730491638183594</v>
+        <v>967.26417541503906</v>
       </c>
       <c r="D39">
-        <v>0.99611282348632813</v>
+        <v>1033.544540405273</v>
       </c>
       <c r="E39">
-        <v>3.9882659912109379</v>
+        <v>4977.9415130615234</v>
       </c>
       <c r="F39">
-        <v>1.994848251342773</v>
+        <v>1001.834869384766</v>
       </c>
       <c r="G39">
-        <v>1.9943714141845701</v>
+        <v>1962.9001617431641</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1326,19 +6784,19 @@
         <v>39000</v>
       </c>
       <c r="C40">
-        <v>0.9975433349609375</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="D40">
-        <v>0.99730491638183594</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="E40">
-        <v>3.9892196655273442</v>
+        <v>4987.7166748046884</v>
       </c>
       <c r="F40">
-        <v>0.99778175354003906</v>
+        <v>1028.2993316650391</v>
       </c>
       <c r="G40">
-        <v>1.994132995605469</v>
+        <v>1993.6561584472661</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1349,19 +6807,19 @@
         <v>40000</v>
       </c>
       <c r="C41">
-        <v>0.99778175354003906</v>
+        <v>967.26417541503906</v>
       </c>
       <c r="D41">
-        <v>0.99730491638183594</v>
+        <v>1028.776168823242</v>
       </c>
       <c r="E41">
-        <v>3.9892196655273442</v>
+        <v>3994.4648742675781</v>
       </c>
       <c r="F41">
-        <v>0.99706649780273438</v>
+        <v>1996.5171813964839</v>
       </c>
       <c r="G41">
-        <v>1.9946098327636721</v>
+        <v>993.7286376953125</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,19 +6830,19 @@
         <v>41000</v>
       </c>
       <c r="C42">
-        <v>0.9975433349609375</v>
+        <v>993.49021911621094</v>
       </c>
       <c r="D42">
-        <v>0.99730491638183594</v>
+        <v>1993.6561584472661</v>
       </c>
       <c r="E42">
-        <v>3.99017333984375</v>
+        <v>3995.895385742188</v>
       </c>
       <c r="F42">
-        <v>1.9936561584472661</v>
+        <v>1986.9804382324221</v>
       </c>
       <c r="G42">
-        <v>0.9975433349609375</v>
+        <v>996.58966064453125</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1395,19 +6853,19 @@
         <v>42000</v>
       </c>
       <c r="C43">
-        <v>0.99778175354003906</v>
+        <v>999.45068359375</v>
       </c>
       <c r="D43">
-        <v>0.99682807922363281</v>
+        <v>969.40994262695313</v>
       </c>
       <c r="E43">
-        <v>3.9892196655273442</v>
+        <v>5018.7110900878906</v>
       </c>
       <c r="F43">
-        <v>1.994848251342773</v>
+        <v>1996.7555999755859</v>
       </c>
       <c r="G43">
-        <v>0.99730491638183594</v>
+        <v>989.67552185058594</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1418,19 +6876,19 @@
         <v>43000</v>
       </c>
       <c r="C44">
-        <v>0.99730491638183594</v>
+        <v>1003.265380859375</v>
       </c>
       <c r="D44">
-        <v>1.994848251342773</v>
+        <v>995.635986328125</v>
       </c>
       <c r="E44">
-        <v>3.9892196655273442</v>
+        <v>3986.120223999023</v>
       </c>
       <c r="F44">
-        <v>0.99730491638183594</v>
+        <v>2002.2392272949221</v>
       </c>
       <c r="G44">
-        <v>1.9946098327636721</v>
+        <v>966.54891967773438</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1441,19 +6899,19 @@
         <v>44000</v>
       </c>
       <c r="C45">
-        <v>0.99730491638183594</v>
+        <v>1987.457275390625</v>
       </c>
       <c r="D45">
-        <v>0.9975433349609375</v>
+        <v>998.02017211914063</v>
       </c>
       <c r="E45">
-        <v>3.9889812469482422</v>
+        <v>4018.3067321777339</v>
       </c>
       <c r="F45">
-        <v>0.9975433349609375</v>
+        <v>968.21784973144531</v>
       </c>
       <c r="G45">
-        <v>1.9943714141845701</v>
+        <v>2015.8290863037109</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1464,19 +6922,19 @@
         <v>45000</v>
       </c>
       <c r="C46">
-        <v>0.99778175354003906</v>
+        <v>976.08566284179688</v>
       </c>
       <c r="D46">
-        <v>0.9975433349609375</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E46">
-        <v>3.9889812469482422</v>
+        <v>5989.3131256103516</v>
       </c>
       <c r="F46">
-        <v>1.9946098327636721</v>
+        <v>1990.318298339844</v>
       </c>
       <c r="G46">
-        <v>0.99730491638183594</v>
+        <v>998.49700927734375</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1487,19 +6945,19 @@
         <v>46000</v>
       </c>
       <c r="C47">
-        <v>0.9975433349609375</v>
+        <v>994.92073059082031</v>
       </c>
       <c r="D47">
-        <v>0.9975433349609375</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E47">
-        <v>3.9889812469482422</v>
+        <v>3989.934921264648</v>
       </c>
       <c r="F47">
-        <v>1.994848251342773</v>
+        <v>2024.1737365722661</v>
       </c>
       <c r="G47">
-        <v>0.9975433349609375</v>
+        <v>998.25859069824219</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1510,19 +6968,19 @@
         <v>47000</v>
       </c>
       <c r="C48">
-        <v>0.99706649780273438</v>
+        <v>966.54891967773438</v>
       </c>
       <c r="D48">
-        <v>0.99730491638183594</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="E48">
-        <v>4.9865245819091797</v>
+        <v>5017.7574157714844</v>
       </c>
       <c r="F48">
-        <v>0.9975433349609375</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="G48">
-        <v>1.9943714141845701</v>
+        <v>1999.139785766602</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1533,19 +6991,19 @@
         <v>48000</v>
       </c>
       <c r="C49">
-        <v>0.9975433349609375</v>
+        <v>987.29133605957031</v>
       </c>
       <c r="D49">
-        <v>0.9975433349609375</v>
+        <v>1004.457473754883</v>
       </c>
       <c r="E49">
-        <v>3.9889812469482422</v>
+        <v>3953.933715820312</v>
       </c>
       <c r="F49">
-        <v>0.99730491638183594</v>
+        <v>1996.040344238281</v>
       </c>
       <c r="G49">
-        <v>1.994848251342773</v>
+        <v>996.58966064453125</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1556,19 +7014,19 @@
         <v>49000</v>
       </c>
       <c r="C50">
-        <v>0.99730491638183594</v>
+        <v>1000.404357910156</v>
       </c>
       <c r="D50">
-        <v>0.9975433349609375</v>
+        <v>995.635986328125</v>
       </c>
       <c r="E50">
-        <v>3.9892196655273442</v>
+        <v>5014.4195556640616</v>
       </c>
       <c r="F50">
-        <v>0.99730491638183594</v>
+        <v>973.22463989257813</v>
       </c>
       <c r="G50">
-        <v>0.99706649780273438</v>
+        <v>1026.8688201904299</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1579,19 +7037,19 @@
         <v>50000</v>
       </c>
       <c r="C51">
-        <v>0.99778175354003906</v>
+        <v>1000.404357910156</v>
       </c>
       <c r="D51">
-        <v>0.99730491638183594</v>
+        <v>988.96026611328125</v>
       </c>
       <c r="E51">
-        <v>3.9889812469482422</v>
+        <v>3996.1338043212891</v>
       </c>
       <c r="F51">
-        <v>1.9946098327636721</v>
+        <v>988.96026611328125</v>
       </c>
       <c r="G51">
-        <v>0.9975433349609375</v>
+        <v>1993.894577026367</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1602,19 +7060,19 @@
         <v>51000</v>
       </c>
       <c r="C52">
-        <v>0.99730491638183594</v>
+        <v>1003.503799438477</v>
       </c>
       <c r="D52">
-        <v>0.9975433349609375</v>
+        <v>996.82807922363281</v>
       </c>
       <c r="E52">
-        <v>3.9892196655273442</v>
+        <v>3989.6965026855469</v>
       </c>
       <c r="F52">
-        <v>1.9943714141845701</v>
+        <v>1997.709274291992</v>
       </c>
       <c r="G52">
-        <v>1.9974708557128911</v>
+        <v>994.44389343261719</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1625,19 +7083,19 @@
         <v>52000</v>
       </c>
       <c r="C53">
-        <v>0.99730491638183594</v>
+        <v>992.77496337890625</v>
       </c>
       <c r="D53">
-        <v>0.99706649780273438</v>
+        <v>999.45068359375</v>
       </c>
       <c r="E53">
-        <v>3.9889812469482422</v>
+        <v>3957.5099945068359</v>
       </c>
       <c r="F53">
-        <v>0.9975433349609375</v>
+        <v>2035.856246948242</v>
       </c>
       <c r="G53">
-        <v>1.9943714141845701</v>
+        <v>986.81449890136719</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1648,19 +7106,19 @@
         <v>53000</v>
       </c>
       <c r="C54">
-        <v>0.9975433349609375</v>
+        <v>998.02017211914063</v>
       </c>
       <c r="D54">
-        <v>0.9975433349609375</v>
+        <v>1000.881195068359</v>
       </c>
       <c r="E54">
-        <v>3.9889812469482422</v>
+        <v>4986.2861633300781</v>
       </c>
       <c r="F54">
-        <v>1.9946098327636721</v>
+        <v>2996.2062835693359</v>
       </c>
       <c r="G54">
-        <v>0.9975433349609375</v>
+        <v>1983.404159545898</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,19 +7129,19 @@
         <v>54000</v>
       </c>
       <c r="C55">
-        <v>0.9975433349609375</v>
+        <v>1967.191696166992</v>
       </c>
       <c r="D55">
-        <v>0.99730491638183594</v>
+        <v>999.21226501464844</v>
       </c>
       <c r="E55">
-        <v>3.9887428283691411</v>
+        <v>3604.4120788574219</v>
       </c>
       <c r="F55">
-        <v>1.9946098327636721</v>
+        <v>1986.265182495117</v>
       </c>
       <c r="G55">
-        <v>0.99778175354003906</v>
+        <v>967.74101257324219</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1694,19 +7152,19 @@
         <v>55000</v>
       </c>
       <c r="C56">
-        <v>0.9975433349609375</v>
+        <v>1027.8224945068359</v>
       </c>
       <c r="D56">
-        <v>0.9975433349609375</v>
+        <v>967.26417541503906</v>
       </c>
       <c r="E56">
-        <v>5.0182342529296884</v>
+        <v>5017.5189971923828</v>
       </c>
       <c r="F56">
-        <v>1.0001659393310549</v>
+        <v>1002.073287963867</v>
       </c>
       <c r="G56">
-        <v>1.9969940185546879</v>
+        <v>1957.893371582031</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1717,19 +7175,19 @@
         <v>56000</v>
       </c>
       <c r="C57">
-        <v>0.99515914916992188</v>
+        <v>1037.59765625</v>
       </c>
       <c r="D57">
-        <v>0.99706649780273438</v>
+        <v>998.25859069824219</v>
       </c>
       <c r="E57">
-        <v>3.9970874786376949</v>
+        <v>4946.4702606201172</v>
       </c>
       <c r="F57">
-        <v>0.98657608032226563</v>
+        <v>996.35124206542969</v>
       </c>
       <c r="G57">
-        <v>1.997709274291992</v>
+        <v>1994.6098327636721</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1740,19 +7198,19 @@
         <v>57000</v>
       </c>
       <c r="C58">
-        <v>0.99444389343261719</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="D58">
-        <v>0.96416473388671875</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E58">
-        <v>4.0261745452880859</v>
+        <v>3993.5111999511719</v>
       </c>
       <c r="F58">
-        <v>1.9965171813964839</v>
+        <v>1024.961471557617</v>
       </c>
       <c r="G58">
-        <v>0.99444389343261719</v>
+        <v>1992.9409027099609</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1763,19 +7221,19 @@
         <v>58000</v>
       </c>
       <c r="C59">
-        <v>0.99802017211914063</v>
+        <v>968.45626831054688</v>
       </c>
       <c r="D59">
-        <v>0.99396705627441406</v>
+        <v>1019.23942565918</v>
       </c>
       <c r="E59">
-        <v>3.9956569671630859</v>
+        <v>3966.3314819335942</v>
       </c>
       <c r="F59">
-        <v>1.9919872283935549</v>
+        <v>1996.278762817383</v>
       </c>
       <c r="G59">
-        <v>0.96154212951660156</v>
+        <v>1024.246215820312</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1786,19 +7244,19 @@
         <v>59000</v>
       </c>
       <c r="C60">
-        <v>1.032590866088867</v>
+        <v>999.21226501464844</v>
       </c>
       <c r="D60">
-        <v>1.995086669921875</v>
+        <v>967.0257568359375</v>
       </c>
       <c r="E60">
-        <v>3.9892196655273442</v>
+        <v>4019.0219879150391</v>
       </c>
       <c r="F60">
-        <v>1.0027885437011721</v>
+        <v>1000.642776489258</v>
       </c>
       <c r="G60">
-        <v>1.988649368286133</v>
+        <v>1998.9013671875</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1809,19 +7267,19 @@
         <v>60000</v>
       </c>
       <c r="C61">
-        <v>0.9975433349609375</v>
+        <v>960.58845520019531</v>
       </c>
       <c r="D61">
-        <v>0.99992752075195313</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E61">
-        <v>3.9875507354736328</v>
+        <v>4986.7630004882813</v>
       </c>
       <c r="F61">
-        <v>0.99396705627441406</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="G61">
-        <v>1.9972324371337891</v>
+        <v>997.30491638183594</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -1832,19 +7290,19 @@
         <v>61000</v>
       </c>
       <c r="C62">
-        <v>0.99444389343261719</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="D62">
-        <v>0.99730491638183594</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="E62">
-        <v>3.9927959442138672</v>
+        <v>4986.2861633300781</v>
       </c>
       <c r="F62">
-        <v>1.9936561584472661</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="G62">
-        <v>1.0001659393310549</v>
+        <v>997.30491638183594</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -1855,19 +7313,19 @@
         <v>62000</v>
       </c>
       <c r="C63">
-        <v>0.99205970764160156</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="D63">
-        <v>0.99945068359375</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E63">
-        <v>4.9529075622558594</v>
+        <v>3989.4580841064449</v>
       </c>
       <c r="F63">
-        <v>0.99730491638183594</v>
+        <v>1995.325088500977</v>
       </c>
       <c r="G63">
-        <v>1.994132995605469</v>
+        <v>997.5433349609375</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -1878,19 +7336,19 @@
         <v>63000</v>
       </c>
       <c r="C64">
-        <v>0.99778175354003906</v>
+        <v>996.58966064453125</v>
       </c>
       <c r="D64">
-        <v>0.99706649780273438</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E64">
-        <v>3.9892196655273442</v>
+        <v>5027.0557403564453</v>
       </c>
       <c r="F64">
-        <v>0.9975433349609375</v>
+        <v>1992.225646972656</v>
       </c>
       <c r="G64">
-        <v>1.994132995605469</v>
+        <v>1000.165939331055</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -1901,19 +7359,19 @@
         <v>64000</v>
       </c>
       <c r="C65">
-        <v>0.99921226501464844</v>
+        <v>985.14556884765625</v>
       </c>
       <c r="D65">
-        <v>0.99635124206542969</v>
+        <v>968.93310546875</v>
       </c>
       <c r="E65">
-        <v>3.9887428283691411</v>
+        <v>4029.2739868164058</v>
       </c>
       <c r="F65">
-        <v>1.9946098327636721</v>
+        <v>1987.9341125488279</v>
       </c>
       <c r="G65">
-        <v>0.9975433349609375</v>
+        <v>1401.901245117188</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1924,19 +7382,19 @@
         <v>65000</v>
       </c>
       <c r="C66">
-        <v>0.9975433349609375</v>
+        <v>1000.881195068359</v>
       </c>
       <c r="D66">
-        <v>0.99730491638183594</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="E66">
-        <v>4.9865245819091797</v>
+        <v>3989.2196655273442</v>
       </c>
       <c r="F66">
-        <v>0.99730491638183594</v>
+        <v>1995.8019256591799</v>
       </c>
       <c r="G66">
-        <v>1.9943714141845701</v>
+        <v>997.30491638183594</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -1947,19 +7405,19 @@
         <v>66000</v>
       </c>
       <c r="C67">
-        <v>0.99778175354003906</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="D67">
-        <v>0.99730491638183594</v>
+        <v>995.87440490722656</v>
       </c>
       <c r="E67">
-        <v>3.9889812469482422</v>
+        <v>4987.2398376464844</v>
       </c>
       <c r="F67">
-        <v>1.9943714141845701</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="G67">
-        <v>0.99778175354003906</v>
+        <v>997.78175354003906</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -1970,19 +7428,19 @@
         <v>67000</v>
       </c>
       <c r="C68">
-        <v>0.9975433349609375</v>
+        <v>1994.132995605469</v>
       </c>
       <c r="D68">
-        <v>0.99730491638183594</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="E68">
-        <v>3.9892196655273442</v>
+        <v>3988.9812469482422</v>
       </c>
       <c r="F68">
-        <v>1.994132995605469</v>
+        <v>998.02017211914063</v>
       </c>
       <c r="G68">
-        <v>0.99802017211914063</v>
+        <v>1993.894577026367</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -1993,19 +7451,19 @@
         <v>68000</v>
       </c>
       <c r="C69">
-        <v>0.99730491638183594</v>
+        <v>1028.060913085938</v>
       </c>
       <c r="D69">
-        <v>0.99706649780273438</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="E69">
-        <v>4.9867630004882813</v>
+        <v>3998.9948272705078</v>
       </c>
       <c r="F69">
-        <v>0.99730491638183594</v>
+        <v>1982.688903808594</v>
       </c>
       <c r="G69">
-        <v>1.9943714141845701</v>
+        <v>999.92752075195313</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2016,19 +7474,19 @@
         <v>69000</v>
       </c>
       <c r="C70">
-        <v>0.99778175354003906</v>
+        <v>965.59524536132813</v>
       </c>
       <c r="D70">
-        <v>1.028776168823242</v>
+        <v>1033.544540405273</v>
       </c>
       <c r="E70">
-        <v>4.0042400360107422</v>
+        <v>4953.1459808349609</v>
       </c>
       <c r="F70">
-        <v>0.99229812622070313</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="G70">
-        <v>1.9857883453369141</v>
+        <v>1994.6098327636721</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2039,19 +7497,19 @@
         <v>70000</v>
       </c>
       <c r="C71">
-        <v>0.9975433349609375</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="D71">
-        <v>1.000642776489258</v>
+        <v>996.58966064453125</v>
       </c>
       <c r="E71">
-        <v>3.9882659912109379</v>
+        <v>3990.6501770019531</v>
       </c>
       <c r="F71">
-        <v>0.99492073059082031</v>
+        <v>1992.7024841308589</v>
       </c>
       <c r="G71">
-        <v>1.9576549530029299</v>
+        <v>997.30491638183594</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2062,19 +7520,19 @@
         <v>71000</v>
       </c>
       <c r="C72">
-        <v>1.031160354614258</v>
+        <v>998.25859069824219</v>
       </c>
       <c r="D72">
-        <v>1.9600391387939451</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E72">
-        <v>3.9892196655273442</v>
+        <v>4984.6172332763672</v>
       </c>
       <c r="F72">
-        <v>0.9975433349609375</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="G72">
-        <v>1.9943714141845701</v>
+        <v>2033.7104797363279</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2085,19 +7543,19 @@
         <v>72000</v>
       </c>
       <c r="C73">
-        <v>0.99778175354003906</v>
+        <v>986.81449890136719</v>
       </c>
       <c r="D73">
-        <v>0.99730491638183594</v>
+        <v>1002.311706542969</v>
       </c>
       <c r="E73">
-        <v>3.9889812469482422</v>
+        <v>3993.749618530273</v>
       </c>
       <c r="F73">
-        <v>1.994848251342773</v>
+        <v>993.25180053710938</v>
       </c>
       <c r="G73">
-        <v>0.99730491638183594</v>
+        <v>1991.9872283935549</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2108,19 +7566,19 @@
         <v>73000</v>
       </c>
       <c r="C74">
-        <v>0.99730491638183594</v>
+        <v>1003.503799438477</v>
       </c>
       <c r="D74">
-        <v>0.9975433349609375</v>
+        <v>994.68231201171875</v>
       </c>
       <c r="E74">
-        <v>4.9865245819091797</v>
+        <v>3953.933715820312</v>
       </c>
       <c r="F74">
-        <v>0.99730491638183594</v>
+        <v>1995.086669921875</v>
       </c>
       <c r="G74">
-        <v>1.995086669921875</v>
+        <v>997.5433349609375</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2131,19 +7589,19 @@
         <v>74000</v>
       </c>
       <c r="C75">
-        <v>0.99706649780273438</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="D75">
-        <v>0.99730491638183594</v>
+        <v>1993.894577026367</v>
       </c>
       <c r="E75">
-        <v>3.9894580841064449</v>
+        <v>3990.8885955810551</v>
       </c>
       <c r="F75">
-        <v>0.99730491638183594</v>
+        <v>996.82807922363281</v>
       </c>
       <c r="G75">
-        <v>1.994132995605469</v>
+        <v>3025.293350219727</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2154,19 +7612,19 @@
         <v>75000</v>
       </c>
       <c r="C76">
-        <v>0.99778175354003906</v>
+        <v>962.73422241210938</v>
       </c>
       <c r="D76">
-        <v>0.99730491638183594</v>
+        <v>1995.8019256591799</v>
       </c>
       <c r="E76">
-        <v>3.9892196655273442</v>
+        <v>4063.3678436279301</v>
       </c>
       <c r="F76">
-        <v>1.9946098327636721</v>
+        <v>968.21784973144531</v>
       </c>
       <c r="G76">
-        <v>0.9975433349609375</v>
+        <v>1995.325088500977</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2177,19 +7635,19 @@
         <v>76000</v>
       </c>
       <c r="C77">
-        <v>0.99730491638183594</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="D77">
-        <v>0.99778175354003906</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="E77">
-        <v>3.9887428283691411</v>
+        <v>3989.4580841064449</v>
       </c>
       <c r="F77">
-        <v>1.9946098327636721</v>
+        <v>1996.7555999755859</v>
       </c>
       <c r="G77">
-        <v>0.99730491638183594</v>
+        <v>994.92073059082031</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2200,19 +7658,19 @@
         <v>77000</v>
       </c>
       <c r="C78">
-        <v>0.99778175354003906</v>
+        <v>999.21226501464844</v>
       </c>
       <c r="D78">
-        <v>0.99706649780273438</v>
+        <v>995.87440490722656</v>
       </c>
       <c r="E78">
-        <v>5.0227642059326172</v>
+        <v>3989.4580841064449</v>
       </c>
       <c r="F78">
-        <v>1.003503799438477</v>
+        <v>2025.842666625977</v>
       </c>
       <c r="G78">
-        <v>1.9881725311279299</v>
+        <v>997.5433349609375</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2223,19 +7681,19 @@
         <v>78000</v>
       </c>
       <c r="C79">
-        <v>0.99825859069824219</v>
+        <v>964.87998962402344</v>
       </c>
       <c r="D79">
-        <v>0.99825859069824219</v>
+        <v>1994.848251342773</v>
       </c>
       <c r="E79">
-        <v>3.9889812469482422</v>
+        <v>3990.411758422852</v>
       </c>
       <c r="F79">
-        <v>0.99396705627441406</v>
+        <v>1993.894577026367</v>
       </c>
       <c r="G79">
-        <v>1.997709274291992</v>
+        <v>998.49700927734375</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2246,19 +7704,19 @@
         <v>79000</v>
       </c>
       <c r="C80">
-        <v>0.99444389343261719</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="D80">
-        <v>0.99945068359375</v>
+        <v>998.49700927734375</v>
       </c>
       <c r="E80">
-        <v>3.9911270141601558</v>
+        <v>4025.9361267089839</v>
       </c>
       <c r="F80">
-        <v>1.994132995605469</v>
+        <v>1957.4165344238279</v>
       </c>
       <c r="G80">
-        <v>0.99658966064453125</v>
+        <v>996.11282348632813</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2269,19 +7727,19 @@
         <v>80000</v>
       </c>
       <c r="C81">
-        <v>0.99492073059082031</v>
+        <v>999.68910217285156</v>
       </c>
       <c r="D81">
-        <v>0.99730491638183594</v>
+        <v>996.11282348632813</v>
       </c>
       <c r="E81">
-        <v>4.0009021759033203</v>
+        <v>5013.9427185058594</v>
       </c>
       <c r="F81">
-        <v>1.9857883453369141</v>
+        <v>970.60203552246094</v>
       </c>
       <c r="G81">
-        <v>0.96106529235839844</v>
+        <v>1028.060913085938</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2292,19 +7750,19 @@
         <v>81000</v>
       </c>
       <c r="C82">
-        <v>2.0308494567871089</v>
+        <v>1011.133193969727</v>
       </c>
       <c r="D82">
-        <v>0.99444389343261719</v>
+        <v>982.2845458984375</v>
       </c>
       <c r="E82">
-        <v>3.9889812469482422</v>
+        <v>3990.411758422852</v>
       </c>
       <c r="F82">
-        <v>1.003026962280273</v>
+        <v>1998.662948608398</v>
       </c>
       <c r="G82">
-        <v>2.0117759704589839</v>
+        <v>998.73542785644531</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2315,19 +7773,19 @@
         <v>82000</v>
       </c>
       <c r="C83">
-        <v>0.97775459289550781</v>
+        <v>989.67552185058594</v>
       </c>
       <c r="D83">
-        <v>0.99587440490722656</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="E83">
-        <v>3.955602645874023</v>
+        <v>4004.2400360107422</v>
       </c>
       <c r="F83">
-        <v>2.0310878753662109</v>
+        <v>1987.218856811523</v>
       </c>
       <c r="G83">
-        <v>0.99802017211914063</v>
+        <v>961.78054809570313</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2338,19 +7796,19 @@
         <v>83000</v>
       </c>
       <c r="C84">
-        <v>0.99277496337890625</v>
+        <v>1025.6767272949221</v>
       </c>
       <c r="D84">
-        <v>0.99468231201171875</v>
+        <v>994.68231201171875</v>
       </c>
       <c r="E84">
-        <v>3.9956569671630859</v>
+        <v>4957.9143524169922</v>
       </c>
       <c r="F84">
-        <v>1.994132995605469</v>
+        <v>996.58966064453125</v>
       </c>
       <c r="G84">
-        <v>0.99873542785644531</v>
+        <v>999.21226501464844</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2361,19 +7819,19 @@
         <v>84000</v>
       </c>
       <c r="C85">
-        <v>1.000404357910156</v>
+        <v>996.58966064453125</v>
       </c>
       <c r="D85">
-        <v>0.98943710327148438</v>
+        <v>996.35124206542969</v>
       </c>
       <c r="E85">
-        <v>4.9867630004882813</v>
+        <v>4017.3530578613281</v>
       </c>
       <c r="F85">
-        <v>1.000404357910156</v>
+        <v>1995.325088500977</v>
       </c>
       <c r="G85">
-        <v>1.9593238830566411</v>
+        <v>967.50259399414063</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2384,19 +7842,19 @@
         <v>85000</v>
       </c>
       <c r="C86">
-        <v>1.009702682495117</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="D86">
-        <v>1.0223388671875</v>
+        <v>1029.4914245605471</v>
       </c>
       <c r="E86">
-        <v>3.9868354797363281</v>
+        <v>4986.5245819091797</v>
       </c>
       <c r="F86">
-        <v>0.96225738525390625</v>
+        <v>1003.742218017578</v>
       </c>
       <c r="G86">
-        <v>2.0325183868408199</v>
+        <v>987.05291748046875</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2407,19 +7865,19 @@
         <v>86000</v>
       </c>
       <c r="C87">
-        <v>0.99396705627441406</v>
+        <v>1093.626022338867</v>
       </c>
       <c r="D87">
-        <v>0.99682807922363281</v>
+        <v>1912.5938415527339</v>
       </c>
       <c r="E87">
-        <v>3.9947032928466801</v>
+        <v>4023.7903594970699</v>
       </c>
       <c r="F87">
-        <v>1.987695693969727</v>
+        <v>992.29812622070313</v>
       </c>
       <c r="G87">
-        <v>1.0015964508056641</v>
+        <v>1996.5171813964839</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2430,19 +7888,19 @@
         <v>87000</v>
       </c>
       <c r="C88">
-        <v>0.99396705627441406</v>
+        <v>997.06649780273438</v>
       </c>
       <c r="D88">
-        <v>0.9975433349609375</v>
+        <v>998.02017211914063</v>
       </c>
       <c r="E88">
-        <v>4.0006637573242188</v>
+        <v>3992.7959442138672</v>
       </c>
       <c r="F88">
-        <v>1.949071884155273</v>
+        <v>1997.709274291992</v>
       </c>
       <c r="G88">
-        <v>0.99706649780273438</v>
+        <v>996.58966064453125</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2453,19 +7911,19 @@
         <v>88000</v>
       </c>
       <c r="C89">
-        <v>1.0344982147216799</v>
+        <v>993.96705627441406</v>
       </c>
       <c r="D89">
-        <v>0.99349021911621094</v>
+        <v>999.45068359375</v>
       </c>
       <c r="E89">
-        <v>4.9889087677001953</v>
+        <v>4949.0928649902344</v>
       </c>
       <c r="F89">
-        <v>0.99539756774902344</v>
+        <v>1994.6098327636721</v>
       </c>
       <c r="G89">
-        <v>1.9621849060058589</v>
+        <v>997.30491638183594</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2476,19 +7934,19 @@
         <v>89000</v>
       </c>
       <c r="C90">
-        <v>1.033544540405273</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="D90">
-        <v>0.96154212951660156</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="E90">
-        <v>3.9885044097900391</v>
+        <v>4986.5245819091797</v>
       </c>
       <c r="F90">
-        <v>1.002311706542969</v>
+        <v>997.30491638183594</v>
       </c>
       <c r="G90">
-        <v>1.990318298339844</v>
+        <v>3020.5249786376949</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2499,19 +7957,19 @@
         <v>90000</v>
       </c>
       <c r="C91">
-        <v>0.99706649780273438</v>
+        <v>1001.1196136474611</v>
       </c>
       <c r="D91">
-        <v>0.99682807922363281</v>
+        <v>998.25859069824219</v>
       </c>
       <c r="E91">
-        <v>3.9894580841064449</v>
+        <v>4982.2330474853516</v>
       </c>
       <c r="F91">
-        <v>1.995086669921875</v>
+        <v>998.25859069824219</v>
       </c>
       <c r="G91">
-        <v>0.99682807922363281</v>
+        <v>1997.4708557128911</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2522,19 +7980,19 @@
         <v>91000</v>
       </c>
       <c r="C92">
-        <v>0.99825859069824219</v>
+        <v>1037.59765625</v>
       </c>
       <c r="D92">
-        <v>0.99635124206542969</v>
+        <v>959.3963623046875</v>
       </c>
       <c r="E92">
-        <v>3.9896965026855469</v>
+        <v>3992.5575256347661</v>
       </c>
       <c r="F92">
-        <v>1.9934177398681641</v>
+        <v>971.07887268066406</v>
       </c>
       <c r="G92">
-        <v>1.994132995605469</v>
+        <v>1026.153564453125</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,19 +8003,19 @@
         <v>92000</v>
       </c>
       <c r="C93">
-        <v>0.99825859069824219</v>
+        <v>991.34445190429688</v>
       </c>
       <c r="D93">
-        <v>0.99682807922363281</v>
+        <v>2009.153366088867</v>
       </c>
       <c r="E93">
-        <v>3.9889812469482422</v>
+        <v>3982.5439453125</v>
       </c>
       <c r="F93">
-        <v>0.99778175354003906</v>
+        <v>1003.98063659668</v>
       </c>
       <c r="G93">
-        <v>2.033472061157227</v>
+        <v>1990.7951354980471</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2568,19 +8026,19 @@
         <v>93000</v>
       </c>
       <c r="C94">
-        <v>0.96035003662109375</v>
+        <v>961.06529235839844</v>
       </c>
       <c r="D94">
-        <v>0.99706649780273438</v>
+        <v>1031.160354614258</v>
       </c>
       <c r="E94">
-        <v>3.9885044097900391</v>
+        <v>3990.411758422852</v>
       </c>
       <c r="F94">
-        <v>1.9946098327636721</v>
+        <v>1998.9013671875</v>
       </c>
       <c r="G94">
-        <v>0.99802017211914063</v>
+        <v>996.11282348632813</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -2591,19 +8049,19 @@
         <v>94000</v>
       </c>
       <c r="C95">
-        <v>0.99778175354003906</v>
+        <v>960.82687377929688</v>
       </c>
       <c r="D95">
-        <v>0.99682807922363281</v>
+        <v>1027.345657348633</v>
       </c>
       <c r="E95">
-        <v>3.9892196655273442</v>
+        <v>4987.0014190673828</v>
       </c>
       <c r="F95">
-        <v>0.99706649780273438</v>
+        <v>967.50259399414063</v>
       </c>
       <c r="G95">
-        <v>0.99635124206542969</v>
+        <v>2028.9421081542971</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2614,19 +8072,19 @@
         <v>95000</v>
       </c>
       <c r="C96">
-        <v>0.99730491638183594</v>
+        <v>998.97384643554688</v>
       </c>
       <c r="D96">
-        <v>0.9975433349609375</v>
+        <v>988.72184753417969</v>
       </c>
       <c r="E96">
-        <v>4.9865245819091797</v>
+        <v>3992.5575256347661</v>
       </c>
       <c r="F96">
-        <v>0.99730491638183594</v>
+        <v>1963.376998901367</v>
       </c>
       <c r="G96">
-        <v>1.9936561584472661</v>
+        <v>1034.736633300781</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -2637,19 +8095,19 @@
         <v>96000</v>
       </c>
       <c r="C97">
-        <v>0.99897384643554688</v>
+        <v>989.67552185058594</v>
       </c>
       <c r="D97">
-        <v>0.99778175354003906</v>
+        <v>994.92073059082031</v>
       </c>
       <c r="E97">
-        <v>3.9873123168945308</v>
+        <v>4723.0720520019531</v>
       </c>
       <c r="F97">
-        <v>1.9946098327636721</v>
+        <v>1000.642776489258</v>
       </c>
       <c r="G97">
-        <v>0.9975433349609375</v>
+        <v>1955.986022949219</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -2660,19 +8118,19 @@
         <v>97000</v>
       </c>
       <c r="C98">
-        <v>0.99706649780273438</v>
+        <v>1028.5377502441411</v>
       </c>
       <c r="D98">
-        <v>0.9975433349609375</v>
+        <v>997.5433349609375</v>
       </c>
       <c r="E98">
-        <v>3.9892196655273442</v>
+        <v>3993.2727813720699</v>
       </c>
       <c r="F98">
-        <v>1.9943714141845701</v>
+        <v>1997.4708557128911</v>
       </c>
       <c r="G98">
-        <v>1.995086669921875</v>
+        <v>960.11161804199219</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -2683,19 +8141,19 @@
         <v>98000</v>
       </c>
       <c r="C99">
-        <v>0.99730491638183594</v>
+        <v>998.02017211914063</v>
       </c>
       <c r="D99">
-        <v>0.99730491638183594</v>
+        <v>1029.4914245605471</v>
       </c>
       <c r="E99">
-        <v>3.9892196655273442</v>
+        <v>4983.6635589599609</v>
       </c>
       <c r="F99">
-        <v>0.99730491638183594</v>
+        <v>1001.1196136474611</v>
       </c>
       <c r="G99">
-        <v>1.9943714141845701</v>
+        <v>1992.225646972656</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -2706,19 +8164,19 @@
         <v>99000</v>
       </c>
       <c r="C100">
-        <v>0.99802017211914063</v>
+        <v>966.54891967773438</v>
       </c>
       <c r="D100">
-        <v>0.99706649780273438</v>
+        <v>1029.2530059814451</v>
       </c>
       <c r="E100">
-        <v>3.9889812469482422</v>
+        <v>3992.5575256347661</v>
       </c>
       <c r="F100">
-        <v>1.994848251342773</v>
+        <v>961.78054809570313</v>
       </c>
       <c r="G100">
-        <v>0.9975433349609375</v>
+        <v>2033.233642578125</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -2729,22 +8187,23 @@
         <v>100000</v>
       </c>
       <c r="C101">
-        <v>0.99706649780273438</v>
+        <v>990.86761474609375</v>
       </c>
       <c r="D101">
-        <v>0.99778175354003906</v>
+        <v>998.97384643554688</v>
       </c>
       <c r="E101">
-        <v>3.9889812469482422</v>
+        <v>3987.3123168945308</v>
       </c>
       <c r="F101">
-        <v>1.9946098327636721</v>
+        <v>1961.708068847656</v>
       </c>
       <c r="G101">
-        <v>0.99706649780273438</v>
+        <v>998.49700927734375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/running_times.xlsx
+++ b/running_times.xlsx
@@ -467,34 +467,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>986.3376617431641</v>
+        <v>1994.132995605469</v>
       </c>
       <c r="C3">
-        <v>2007.007598876953</v>
+        <v>3989.934921264648</v>
       </c>
       <c r="D3">
-        <v>3989.219665527344</v>
+        <v>6980.89599609375</v>
       </c>
       <c r="E3">
-        <v>5018.472671508789</v>
+        <v>9972.572326660156</v>
       </c>
       <c r="F3">
-        <v>7978.439331054688</v>
+        <v>12964.24865722656</v>
       </c>
       <c r="G3">
-        <v>9973.526000976562</v>
+        <v>15957.35549926758</v>
       </c>
       <c r="H3">
-        <v>11967.65899658203</v>
+        <v>19946.81358337402</v>
       </c>
       <c r="I3">
-        <v>13973.23608398438</v>
+        <v>22938.48991394043</v>
       </c>
       <c r="J3">
-        <v>16954.18357849121</v>
+        <v>25896.78764343262</v>
       </c>
       <c r="K3">
-        <v>19954.91981506348</v>
+        <v>30897.37892150879</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -502,34 +502,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1989.841461181641</v>
+        <v>2992.153167724609</v>
       </c>
       <c r="C4">
-        <v>2989.053726196289</v>
+        <v>4987.955093383789</v>
       </c>
       <c r="D4">
-        <v>3989.219665527344</v>
+        <v>6981.611251831055</v>
       </c>
       <c r="E4">
-        <v>5983.114242553711</v>
+        <v>8976.459503173828</v>
       </c>
       <c r="F4">
-        <v>6981.372833251953</v>
+        <v>11968.37425231934</v>
       </c>
       <c r="G4">
-        <v>7978.200912475586</v>
+        <v>15959.02442932129</v>
       </c>
       <c r="H4">
-        <v>10970.5924987793</v>
+        <v>16954.42199707031</v>
       </c>
       <c r="I4">
-        <v>11962.4137878418</v>
+        <v>19947.05200195312</v>
       </c>
       <c r="J4">
-        <v>13962.5072479248</v>
+        <v>23962.97454833984</v>
       </c>
       <c r="K4">
-        <v>18940.68717956543</v>
+        <v>25928.97415161133</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -537,34 +537,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1991.748809814453</v>
+        <v>2991.914749145508</v>
       </c>
       <c r="C5">
-        <v>3991.842269897461</v>
+        <v>6980.419158935547</v>
       </c>
       <c r="D5">
-        <v>6982.088088989258</v>
+        <v>11969.32792663574</v>
       </c>
       <c r="E5">
-        <v>8986.473083496094</v>
+        <v>16954.18357849121</v>
       </c>
       <c r="F5">
-        <v>11968.13583374023</v>
+        <v>20943.88008117676</v>
       </c>
       <c r="G5">
-        <v>15986.44256591797</v>
+        <v>25929.92782592773</v>
       </c>
       <c r="H5">
-        <v>18949.98550415039</v>
+        <v>30917.16766357422</v>
       </c>
       <c r="I5">
-        <v>20946.02584838867</v>
+        <v>35904.4075012207</v>
       </c>
       <c r="J5">
-        <v>26927.70957946777</v>
+        <v>39864.77851867676</v>
       </c>
       <c r="K5">
-        <v>31951.4274597168</v>
+        <v>45877.45666503906</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -572,34 +572,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15958.07075500488</v>
+        <v>27925.01449584961</v>
       </c>
       <c r="C6">
-        <v>64785.95733642578</v>
+        <v>115660.4290008545</v>
       </c>
       <c r="D6">
-        <v>152630.3291320801</v>
+        <v>250365.7341003418</v>
       </c>
       <c r="E6">
-        <v>261303.186416626</v>
+        <v>449797.3918914795</v>
       </c>
       <c r="F6">
-        <v>410901.7848968506</v>
+        <v>701125.8602142334</v>
       </c>
       <c r="G6">
-        <v>588397.2644805908</v>
+        <v>1031243.085861206</v>
       </c>
       <c r="H6">
-        <v>844741.8212890625</v>
+        <v>1378316.402435303</v>
       </c>
       <c r="I6">
-        <v>1092082.262039185</v>
+        <v>1795199.632644653</v>
       </c>
       <c r="J6">
-        <v>1404246.56867981</v>
+        <v>2350753.545761108</v>
       </c>
       <c r="K6">
-        <v>1700446.605682373</v>
+        <v>2811478.137969971</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -607,34 +607,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14976.73988342285</v>
+        <v>43919.80171203613</v>
       </c>
       <c r="C7">
-        <v>62831.64024353027</v>
+        <v>151596.5461730957</v>
       </c>
       <c r="D7">
-        <v>141625.1659393311</v>
+        <v>360000.8487701416</v>
       </c>
       <c r="E7">
-        <v>258265.2568817139</v>
+        <v>666218.2807922363</v>
       </c>
       <c r="F7">
-        <v>397936.5825653076</v>
+        <v>998328.4473419189</v>
       </c>
       <c r="G7">
-        <v>581446.1708068848</v>
+        <v>1890941.858291626</v>
       </c>
       <c r="H7">
-        <v>806882.8582763672</v>
+        <v>2160223.245620728</v>
       </c>
       <c r="I7">
-        <v>1054140.090942383</v>
+        <v>2740709.066390991</v>
       </c>
       <c r="J7">
-        <v>1412221.670150757</v>
+        <v>3216392.278671265</v>
       </c>
       <c r="K7">
-        <v>1646610.498428345</v>
+        <v>3729995.012283325</v>
       </c>
     </row>
   </sheetData>

--- a/running_times.xlsx
+++ b/running_times.xlsx
@@ -467,34 +467,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1994.132995605469</v>
+        <v>1992.702484130859</v>
       </c>
       <c r="C3">
-        <v>3989.934921264648</v>
+        <v>3979.44450378418</v>
       </c>
       <c r="D3">
-        <v>6980.89599609375</v>
+        <v>7978.439331054688</v>
       </c>
       <c r="E3">
-        <v>9972.572326660156</v>
+        <v>9973.049163818359</v>
       </c>
       <c r="F3">
-        <v>12964.24865722656</v>
+        <v>13962.0304107666</v>
       </c>
       <c r="G3">
-        <v>15957.35549926758</v>
+        <v>16961.33613586426</v>
       </c>
       <c r="H3">
-        <v>19946.81358337402</v>
+        <v>18949.27024841309</v>
       </c>
       <c r="I3">
-        <v>22938.48991394043</v>
+        <v>23927.45018005371</v>
       </c>
       <c r="J3">
-        <v>25896.78764343262</v>
+        <v>27930.97496032715</v>
       </c>
       <c r="K3">
-        <v>30897.37892150879</v>
+        <v>30921.93603515625</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -502,34 +502,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2992.153167724609</v>
+        <v>1994.37141418457</v>
       </c>
       <c r="C4">
-        <v>4987.955093383789</v>
+        <v>3988.981246948242</v>
       </c>
       <c r="D4">
-        <v>6981.611251831055</v>
+        <v>6981.372833251953</v>
       </c>
       <c r="E4">
-        <v>8976.459503173828</v>
+        <v>9973.764419555664</v>
       </c>
       <c r="F4">
-        <v>11968.37425231934</v>
+        <v>12004.61387634277</v>
       </c>
       <c r="G4">
-        <v>15959.02442932129</v>
+        <v>14968.6336517334</v>
       </c>
       <c r="H4">
-        <v>16954.42199707031</v>
+        <v>17952.20375061035</v>
       </c>
       <c r="I4">
-        <v>19947.05200195312</v>
+        <v>20944.11849975586</v>
       </c>
       <c r="J4">
-        <v>23962.97454833984</v>
+        <v>23936.27166748047</v>
       </c>
       <c r="K4">
-        <v>25928.97415161133</v>
+        <v>28927.56462097168</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -537,34 +537,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2991.914749145508</v>
+        <v>2953.767776489258</v>
       </c>
       <c r="C5">
-        <v>6980.419158935547</v>
+        <v>7982.015609741211</v>
       </c>
       <c r="D5">
-        <v>11969.32792663574</v>
+        <v>10970.11566162109</v>
       </c>
       <c r="E5">
-        <v>16954.18357849121</v>
+        <v>15956.87866210938</v>
       </c>
       <c r="F5">
-        <v>20943.88008117676</v>
+        <v>20944.59533691406</v>
       </c>
       <c r="G5">
-        <v>25929.92782592773</v>
+        <v>25886.77406311035</v>
       </c>
       <c r="H5">
-        <v>30917.16766357422</v>
+        <v>30918.59817504883</v>
       </c>
       <c r="I5">
-        <v>35904.4075012207</v>
+        <v>35866.97578430176</v>
       </c>
       <c r="J5">
-        <v>39864.77851867676</v>
+        <v>40889.73999023438</v>
       </c>
       <c r="K5">
-        <v>45877.45666503906</v>
+        <v>46870.47004699707</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -572,34 +572,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27925.01449584961</v>
+        <v>27960.53886413574</v>
       </c>
       <c r="C6">
-        <v>115660.4290008545</v>
+        <v>118197.4411010742</v>
       </c>
       <c r="D6">
-        <v>250365.7341003418</v>
+        <v>255315.5422210693</v>
       </c>
       <c r="E6">
-        <v>449797.3918914795</v>
+        <v>453829.5269012451</v>
       </c>
       <c r="F6">
-        <v>701125.8602142334</v>
+        <v>708666.8014526367</v>
       </c>
       <c r="G6">
-        <v>1031243.085861206</v>
+        <v>1036929.368972778</v>
       </c>
       <c r="H6">
-        <v>1378316.402435303</v>
+        <v>1440148.115158081</v>
       </c>
       <c r="I6">
-        <v>1795199.632644653</v>
+        <v>1835309.505462646</v>
       </c>
       <c r="J6">
-        <v>2350753.545761108</v>
+        <v>2433649.063110352</v>
       </c>
       <c r="K6">
-        <v>2811478.137969971</v>
+        <v>2925045.967102051</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -607,34 +607,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43919.80171203613</v>
+        <v>25933.74252319336</v>
       </c>
       <c r="C7">
-        <v>151596.5461730957</v>
+        <v>108254.1942596436</v>
       </c>
       <c r="D7">
-        <v>360000.8487701416</v>
+        <v>244349.7180938721</v>
       </c>
       <c r="E7">
-        <v>666218.2807922363</v>
+        <v>455195.9037780762</v>
       </c>
       <c r="F7">
-        <v>998328.4473419189</v>
+        <v>704145.6699371338</v>
       </c>
       <c r="G7">
-        <v>1890941.858291626</v>
+        <v>1005827.188491821</v>
       </c>
       <c r="H7">
-        <v>2160223.245620728</v>
+        <v>1387549.161911011</v>
       </c>
       <c r="I7">
-        <v>2740709.066390991</v>
+        <v>1788919.21043396</v>
       </c>
       <c r="J7">
-        <v>3216392.278671265</v>
+        <v>2297909.021377563</v>
       </c>
       <c r="K7">
-        <v>3729995.012283325</v>
+        <v>2857567.310333252</v>
       </c>
     </row>
   </sheetData>
